--- a/태양광/data/assumption.xlsx
+++ b/태양광/data/assumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\태양광\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC950F31-99C4-4813-916A-D02DB65BD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3DD72E-3B96-4AD1-89D9-A2719FEC5898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{9B2A4FF7-F66C-435A-B7A6-04026E7B4664}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9B2A4FF7-F66C-435A-B7A6-04026E7B4664}"/>
   </bookViews>
   <sheets>
     <sheet name="assumption" sheetId="1" r:id="rId1"/>
@@ -490,11 +490,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282255E-3CBB-482D-A32D-960721DFBB35}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -772,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DE570C-D5D0-4BA8-BB97-5F81E951593A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
